--- a/ExcelToDatabase/wwwroot/Uploads/Earning_Docs/HistPayListing_EARNINGS.xlsx
+++ b/ExcelToDatabase/wwwroot/Uploads/Earning_Docs/HistPayListing_EARNINGS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSSQL\Documents\Projects\Omusati RC Developments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9ED90B-2E70-41F2-A35D-D74C3A0928EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0790027D-F707-4A0E-967D-5DA77D0EC860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll Listing" sheetId="1" r:id="rId1"/>
@@ -746,9 +746,6 @@
     <t>NAAMBO JULIA</t>
   </si>
   <si>
-    <t>TUUKONDJELE</t>
-  </si>
-  <si>
     <t>PAULUS</t>
   </si>
   <si>
@@ -1491,6 +1488,9 @@
   </si>
   <si>
     <t>20084642</t>
+  </si>
+  <si>
+    <t>Marx</t>
   </si>
 </sst>
 </file>
@@ -1858,8 +1858,8 @@
   <dimension ref="A1:BA151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -2086,7 +2086,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E2" s="3">
         <v>3993.08</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -2247,7 +2247,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" s="3">
         <v>3993.08</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -2408,7 +2408,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E4" s="3">
         <v>3993.08</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -2569,7 +2569,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E5" s="3">
         <v>6103.25</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2730,7 +2730,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E6" s="3">
         <v>3993.08</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -2891,7 +2891,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E7" s="3">
         <v>15183.5</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -3052,7 +3052,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -3213,7 +3213,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E9" s="3">
         <v>10257.17</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -3374,7 +3374,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E10" s="3">
         <v>43153</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -3535,7 +3535,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E11" s="3">
         <v>10257.17</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -3696,7 +3696,7 @@
         <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E12" s="3">
         <v>3609.42</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -3857,7 +3857,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E13" s="3">
         <v>22652.33</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -4018,7 +4018,7 @@
         <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E14" s="3">
         <v>3758.08</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
@@ -4179,7 +4179,7 @@
         <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E15" s="3">
         <v>3609.42</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
         <v>80</v>
@@ -4340,7 +4340,7 @@
         <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E16" s="3">
         <v>8551.83</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -4501,7 +4501,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E17" s="3">
         <v>10257.17</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -4662,7 +4662,7 @@
         <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E18" s="3">
         <v>10257.17</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -4823,7 +4823,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E19" s="3">
         <v>10257.17</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -4984,7 +4984,7 @@
         <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E20" s="3">
         <v>10257.17</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
@@ -5145,7 +5145,7 @@
         <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E21" s="3">
         <v>10257.17</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B22" t="s">
         <v>92</v>
@@ -5306,7 +5306,7 @@
         <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E22" s="3">
         <v>10257.17</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B23" t="s">
         <v>94</v>
@@ -5467,7 +5467,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E23" s="3">
         <v>22652.33</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B24" t="s">
         <v>96</v>
@@ -5628,7 +5628,7 @@
         <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E24" s="3">
         <v>33660.17</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B25" t="s">
         <v>98</v>
@@ -5789,7 +5789,7 @@
         <v>99</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" s="3">
         <v>10257.17</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B26" t="s">
         <v>100</v>
@@ -5950,7 +5950,7 @@
         <v>101</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E26" s="3">
         <v>10257.17</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
@@ -6111,7 +6111,7 @@
         <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E27" s="3">
         <v>10257.17</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B28" t="s">
         <v>104</v>
@@ -6272,7 +6272,7 @@
         <v>105</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E28" s="3">
         <v>23105.33</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B29" t="s">
         <v>100</v>
@@ -6433,7 +6433,7 @@
         <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E29" s="3">
         <v>4887.08</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -6594,7 +6594,7 @@
         <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E30" s="3">
         <v>32353.08</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s">
         <v>108</v>
@@ -6755,7 +6755,7 @@
         <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E31" s="3">
         <v>26540.83</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
@@ -6916,7 +6916,7 @@
         <v>110</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E32" s="3">
         <v>7777.5</v>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B33" t="s">
         <v>111</v>
@@ -7077,7 +7077,7 @@
         <v>112</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E33" s="3">
         <v>21772.67</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B34" t="s">
         <v>113</v>
@@ -7238,7 +7238,7 @@
         <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E34" s="3">
         <v>10257.17</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s">
         <v>114</v>
@@ -7399,7 +7399,7 @@
         <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E35" s="3">
         <v>32353.08</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s">
         <v>115</v>
@@ -7560,7 +7560,7 @@
         <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E36" s="3">
         <v>3466.42</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s">
         <v>116</v>
@@ -7721,7 +7721,7 @@
         <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E37" s="3">
         <v>22652.33</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s">
         <v>118</v>
@@ -7882,7 +7882,7 @@
         <v>119</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E38" s="3">
         <v>43153</v>
@@ -8034,7 +8034,7 @@
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s">
         <v>120</v>
@@ -8043,7 +8043,7 @@
         <v>121</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E39" s="3">
         <v>3329.25</v>
@@ -8195,7 +8195,7 @@
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s">
         <v>122</v>
@@ -8204,7 +8204,7 @@
         <v>123</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E40" s="3">
         <v>3329.25</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s">
         <v>124</v>
@@ -8365,7 +8365,7 @@
         <v>125</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E41" s="3">
         <v>9271.67</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s">
         <v>126</v>
@@ -8526,7 +8526,7 @@
         <v>127</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E42" s="3">
         <v>43153</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
@@ -8687,7 +8687,7 @@
         <v>128</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E43" s="3">
         <v>16797.330000000002</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s">
         <v>129</v>
@@ -8848,7 +8848,7 @@
         <v>130</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E44" s="3">
         <v>9271.67</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s">
         <v>131</v>
@@ -9009,7 +9009,7 @@
         <v>132</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E45" s="3">
         <v>12917.5</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s">
         <v>63</v>
@@ -9170,7 +9170,7 @@
         <v>133</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E46" s="3">
         <v>3329.25</v>
@@ -9322,7 +9322,7 @@
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s">
         <v>134</v>
@@ -9331,7 +9331,7 @@
         <v>135</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E47" s="3">
         <v>30487.08</v>
@@ -9483,7 +9483,7 @@
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s">
         <v>136</v>
@@ -9492,7 +9492,7 @@
         <v>137</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E48" s="3">
         <v>32353.08</v>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s">
         <v>138</v>
@@ -9653,7 +9653,7 @@
         <v>139</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E49" s="3">
         <v>3262.58</v>
@@ -9805,7 +9805,7 @@
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s">
         <v>140</v>
@@ -9814,7 +9814,7 @@
         <v>141</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E50" s="3">
         <v>21345.75</v>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s">
         <v>142</v>
@@ -9975,7 +9975,7 @@
         <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E51" s="3">
         <v>20114.580000000002</v>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s">
         <v>135</v>
@@ -10136,7 +10136,7 @@
         <v>143</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E52" s="3">
         <v>3262.58</v>
@@ -10288,7 +10288,7 @@
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s">
         <v>144</v>
@@ -10297,7 +10297,7 @@
         <v>145</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E53" s="3">
         <v>3262.58</v>
@@ -10449,7 +10449,7 @@
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s">
         <v>63</v>
@@ -10458,7 +10458,7 @@
         <v>146</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E54" s="3">
         <v>3262.58</v>
@@ -10610,7 +10610,7 @@
     </row>
     <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s">
         <v>147</v>
@@ -10619,7 +10619,7 @@
         <v>148</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E55" s="3">
         <v>19333.580000000002</v>
@@ -10771,7 +10771,7 @@
     </row>
     <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s">
         <v>149</v>
@@ -10780,7 +10780,7 @@
         <v>150</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E56" s="3">
         <v>3262.58</v>
@@ -10932,7 +10932,7 @@
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s">
         <v>151</v>
@@ -10941,7 +10941,7 @@
         <v>152</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E57" s="3">
         <v>9086.25</v>
@@ -11093,7 +11093,7 @@
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s">
         <v>143</v>
@@ -11102,7 +11102,7 @@
         <v>153</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E58" s="3">
         <v>9460.83</v>
@@ -11254,7 +11254,7 @@
     </row>
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s">
         <v>154</v>
@@ -11263,7 +11263,7 @@
         <v>155</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E59" s="3">
         <v>21082.25</v>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B60" t="s">
         <v>156</v>
@@ -11424,7 +11424,7 @@
         <v>157</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E60" s="3">
         <v>21082.25</v>
@@ -11576,7 +11576,7 @@
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -11585,7 +11585,7 @@
         <v>158</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E61" s="3">
         <v>26329</v>
@@ -11737,7 +11737,7 @@
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s">
         <v>159</v>
@@ -11746,7 +11746,7 @@
         <v>160</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E62" s="3">
         <v>21082.25</v>
@@ -11898,7 +11898,7 @@
     </row>
     <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B63" t="s">
         <v>110</v>
@@ -11907,7 +11907,7 @@
         <v>161</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E63" s="3">
         <v>21082.25</v>
@@ -12059,7 +12059,7 @@
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B64" t="s">
         <v>162</v>
@@ -12068,7 +12068,7 @@
         <v>163</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E64" s="3">
         <v>38813.919999999998</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B65" t="s">
         <v>147</v>
@@ -12229,7 +12229,7 @@
         <v>63</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E65" s="3">
         <v>26329</v>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B66" t="s">
         <v>164</v>
@@ -12390,7 +12390,7 @@
         <v>52</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E66" s="3">
         <v>21082.25</v>
@@ -12542,7 +12542,7 @@
     </row>
     <row r="67" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B67" t="s">
         <v>165</v>
@@ -12551,7 +12551,7 @@
         <v>143</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E67" s="3">
         <v>26329</v>
@@ -12703,7 +12703,7 @@
     </row>
     <row r="68" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B68" t="s">
         <v>166</v>
@@ -12712,7 +12712,7 @@
         <v>167</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E68" s="3">
         <v>3197.33</v>
@@ -12864,7 +12864,7 @@
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B69" t="s">
         <v>168</v>
@@ -12873,7 +12873,7 @@
         <v>169</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E69" s="3">
         <v>13450.17</v>
@@ -13025,7 +13025,7 @@
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B70" t="s">
         <v>170</v>
@@ -13034,7 +13034,7 @@
         <v>171</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E70" s="3">
         <v>29303.25</v>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="71" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B71" t="s">
         <v>172</v>
@@ -13195,7 +13195,7 @@
         <v>173</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E71" s="3">
         <v>29303.25</v>
@@ -13347,7 +13347,7 @@
     </row>
     <row r="72" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B72" t="s">
         <v>145</v>
@@ -13356,7 +13356,7 @@
         <v>174</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E72" s="3">
         <v>8904.42</v>
@@ -13508,7 +13508,7 @@
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s">
         <v>175</v>
@@ -13517,7 +13517,7 @@
         <v>176</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E73" s="3">
         <v>29303.25</v>
@@ -13669,7 +13669,7 @@
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B74" t="s">
         <v>177</v>
@@ -13678,7 +13678,7 @@
         <v>178</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E74" s="3">
         <v>16132.25</v>
@@ -13830,7 +13830,7 @@
     </row>
     <row r="75" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B75" t="s">
         <v>179</v>
@@ -13839,7 +13839,7 @@
         <v>180</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E75" s="3">
         <v>3197.33</v>
@@ -13991,7 +13991,7 @@
     </row>
     <row r="76" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B76" t="s">
         <v>181</v>
@@ -14000,7 +14000,7 @@
         <v>182</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E76" s="3">
         <v>3197.33</v>
@@ -14152,7 +14152,7 @@
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B77" t="s">
         <v>183</v>
@@ -14161,7 +14161,7 @@
         <v>158</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E77" s="3">
         <v>3133.42</v>
@@ -14313,7 +14313,7 @@
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B78" t="s">
         <v>184</v>
@@ -14322,7 +14322,7 @@
         <v>185</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E78" s="3">
         <v>3133.42</v>
@@ -14474,7 +14474,7 @@
     </row>
     <row r="79" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B79" t="s">
         <v>186</v>
@@ -14483,7 +14483,7 @@
         <v>79</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E79" s="3">
         <v>22208.17</v>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="80" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B80" t="s">
         <v>187</v>
@@ -14644,7 +14644,7 @@
         <v>188</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E80" s="3">
         <v>20517</v>
@@ -14796,7 +14796,7 @@
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B81" t="s">
         <v>189</v>
@@ -14805,7 +14805,7 @@
         <v>190</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E81" s="3">
         <v>20114.580000000002</v>
@@ -14957,7 +14957,7 @@
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B82" t="s">
         <v>191</v>
@@ -14966,7 +14966,7 @@
         <v>192</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E82" s="3">
         <v>4693.5</v>
@@ -15118,7 +15118,7 @@
     </row>
     <row r="83" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B83" t="s">
         <v>193</v>
@@ -15127,7 +15127,7 @@
         <v>194</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E83" s="3">
         <v>3133.42</v>
@@ -15279,7 +15279,7 @@
     </row>
     <row r="84" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B84" t="s">
         <v>195</v>
@@ -15288,7 +15288,7 @@
         <v>55</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E84" s="3">
         <v>15183.5</v>
@@ -15440,7 +15440,7 @@
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B85" t="s">
         <v>196</v>
@@ -15449,7 +15449,7 @@
         <v>197</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E85" s="3">
         <v>8726.42</v>
@@ -15601,7 +15601,7 @@
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s">
         <v>198</v>
@@ -15610,7 +15610,7 @@
         <v>199</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E86" s="3">
         <v>3133.42</v>
@@ -15762,7 +15762,7 @@
     </row>
     <row r="87" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B87" t="s">
         <v>200</v>
@@ -15771,7 +15771,7 @@
         <v>201</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E87" s="3">
         <v>19333.580000000002</v>
@@ -15923,7 +15923,7 @@
     </row>
     <row r="88" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B88" t="s">
         <v>202</v>
@@ -15932,7 +15932,7 @@
         <v>203</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E88" s="3">
         <v>8726.42</v>
@@ -16084,7 +16084,7 @@
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B89" t="s">
         <v>204</v>
@@ -16093,7 +16093,7 @@
         <v>71</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E89" s="3">
         <v>6354.92</v>
@@ -16245,7 +16245,7 @@
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B90" t="s">
         <v>205</v>
@@ -16254,7 +16254,7 @@
         <v>206</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E90" s="3">
         <v>31096.75</v>
@@ -16406,7 +16406,7 @@
     </row>
     <row r="91" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B91" t="s">
         <v>207</v>
@@ -16415,7 +16415,7 @@
         <v>208</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E91" s="3">
         <v>3070.83</v>
@@ -16567,7 +16567,7 @@
     </row>
     <row r="92" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B92" t="s">
         <v>209</v>
@@ -16576,7 +16576,7 @@
         <v>63</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E92" s="3">
         <v>20517</v>
@@ -16728,7 +16728,7 @@
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B93" t="s">
         <v>210</v>
@@ -16737,7 +16737,7 @@
         <v>63</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E93" s="3">
         <v>19720.169999999998</v>
@@ -16889,7 +16889,7 @@
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B94" t="s">
         <v>211</v>
@@ -16898,7 +16898,7 @@
         <v>212</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E94" s="3">
         <v>3070.83</v>
@@ -17050,7 +17050,7 @@
     </row>
     <row r="95" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B95" t="s">
         <v>213</v>
@@ -17059,7 +17059,7 @@
         <v>214</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E95" s="3">
         <v>45794.25</v>
@@ -17211,7 +17211,7 @@
     </row>
     <row r="96" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B96" t="s">
         <v>215</v>
@@ -17220,7 +17220,7 @@
         <v>216</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E96" s="3">
         <v>12659.17</v>
@@ -17372,7 +17372,7 @@
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B97" t="s">
         <v>217</v>
@@ -17381,7 +17381,7 @@
         <v>218</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E97" s="3">
         <v>42306.92</v>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B98" t="s">
         <v>219</v>
@@ -17542,7 +17542,7 @@
         <v>220</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E98" s="3">
         <v>10257.17</v>
@@ -17694,16 +17694,16 @@
     </row>
     <row r="99" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B99" t="s">
+        <v>469</v>
+      </c>
+      <c r="C99" t="s">
         <v>221</v>
       </c>
-      <c r="C99" t="s">
-        <v>222</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E99" s="3">
         <v>33660.17</v>
@@ -17855,16 +17855,16 @@
     </row>
     <row r="100" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B100" t="s">
         <v>147</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E100" s="3">
         <v>46710.17</v>
@@ -18016,16 +18016,16 @@
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B101" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" t="s">
         <v>224</v>
       </c>
-      <c r="C101" t="s">
-        <v>225</v>
-      </c>
       <c r="D101" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E101" s="3">
         <v>15183.5</v>
@@ -18177,16 +18177,16 @@
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" t="s">
         <v>226</v>
       </c>
-      <c r="C102" t="s">
-        <v>227</v>
-      </c>
       <c r="D102" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E102" s="3">
         <v>22652.33</v>
@@ -18338,16 +18338,16 @@
     </row>
     <row r="103" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B103" t="s">
         <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E103" s="3">
         <v>22652.33</v>
@@ -18499,16 +18499,16 @@
     </row>
     <row r="104" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C104" t="s">
         <v>165</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E104" s="3">
         <v>10257.17</v>
@@ -18660,16 +18660,16 @@
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B105" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" t="s">
         <v>230</v>
       </c>
-      <c r="C105" t="s">
-        <v>231</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E105" s="3">
         <v>10257.17</v>
@@ -18821,16 +18821,16 @@
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C106" t="s">
         <v>146</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E106" s="3">
         <v>3683</v>
@@ -18982,16 +18982,16 @@
     </row>
     <row r="107" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B107" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" t="s">
         <v>233</v>
       </c>
-      <c r="C107" t="s">
-        <v>234</v>
-      </c>
       <c r="D107" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E107" s="3">
         <v>10257.17</v>
@@ -19143,16 +19143,16 @@
     </row>
     <row r="108" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C108" t="s">
         <v>100</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E108" s="3">
         <v>15183.5</v>
@@ -19304,16 +19304,16 @@
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" t="s">
         <v>236</v>
       </c>
-      <c r="C109" t="s">
-        <v>237</v>
-      </c>
       <c r="D109" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E109" s="3">
         <v>10257.17</v>
@@ -19465,16 +19465,16 @@
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B110" t="s">
+        <v>237</v>
+      </c>
+      <c r="C110" t="s">
         <v>238</v>
       </c>
-      <c r="C110" t="s">
-        <v>239</v>
-      </c>
       <c r="D110" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E110" s="3">
         <v>10257.17</v>
@@ -19626,7 +19626,7 @@
     </row>
     <row r="111" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B111" t="s">
         <v>167</v>
@@ -19635,7 +19635,7 @@
         <v>63</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E111" s="3">
         <v>13450.17</v>
@@ -19787,16 +19787,16 @@
     </row>
     <row r="112" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" t="s">
         <v>240</v>
       </c>
-      <c r="C112" t="s">
-        <v>241</v>
-      </c>
       <c r="D112" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E112" s="3">
         <v>6838.1</v>
@@ -19948,16 +19948,16 @@
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B113" t="s">
         <v>187</v>
       </c>
       <c r="C113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E113" s="3">
         <v>33660.17</v>
@@ -20109,16 +20109,16 @@
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B114" t="s">
+        <v>242</v>
+      </c>
+      <c r="C114" t="s">
         <v>243</v>
       </c>
-      <c r="C114" t="s">
-        <v>244</v>
-      </c>
       <c r="D114" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E114" s="3">
         <v>12659.17</v>
@@ -20270,16 +20270,16 @@
     </row>
     <row r="115" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B115" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" t="s">
         <v>245</v>
       </c>
-      <c r="C115" t="s">
-        <v>246</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E115" s="3">
         <v>26020.42</v>
@@ -20431,16 +20431,16 @@
     </row>
     <row r="116" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B116" t="s">
         <v>147</v>
       </c>
       <c r="C116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E116" s="3">
         <v>10257.17</v>
@@ -20592,16 +20592,16 @@
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" t="s">
         <v>248</v>
       </c>
-      <c r="C117" t="s">
-        <v>249</v>
-      </c>
       <c r="D117" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E117" s="3">
         <v>10257.17</v>
@@ -20753,16 +20753,16 @@
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B118" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" t="s">
         <v>250</v>
       </c>
-      <c r="C118" t="s">
-        <v>251</v>
-      </c>
       <c r="D118" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E118" s="3">
         <v>15183.5</v>
@@ -20914,16 +20914,16 @@
     </row>
     <row r="119" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B119" t="s">
         <v>78</v>
       </c>
       <c r="C119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E119" s="3">
         <v>33660.17</v>
@@ -21075,16 +21075,16 @@
     </row>
     <row r="120" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C120" t="s">
         <v>174</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E120" s="3">
         <v>33660.17</v>
@@ -21236,16 +21236,16 @@
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C121" t="s">
         <v>174</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E121" s="3">
         <v>33660.17</v>
@@ -21397,16 +21397,16 @@
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B122" t="s">
         <v>200</v>
       </c>
       <c r="C122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E122" s="3">
         <v>33660.17</v>
@@ -21558,16 +21558,16 @@
     </row>
     <row r="123" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C123" t="s">
         <v>203</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E123" s="3">
         <v>10257.17</v>
@@ -21719,16 +21719,16 @@
     </row>
     <row r="124" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B124" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" t="s">
         <v>257</v>
       </c>
-      <c r="C124" t="s">
-        <v>258</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E124" s="3">
         <v>18582.830000000002</v>
@@ -21880,7 +21880,7 @@
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B125" t="s">
         <v>200</v>
@@ -21889,7 +21889,7 @@
         <v>110</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E125" s="3">
         <v>10257.17</v>
@@ -22041,16 +22041,16 @@
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B126" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" t="s">
         <v>259</v>
       </c>
-      <c r="C126" t="s">
-        <v>260</v>
-      </c>
       <c r="D126" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E126" s="3">
         <v>13181.17</v>
@@ -22202,16 +22202,16 @@
     </row>
     <row r="127" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B127" t="s">
         <v>160</v>
       </c>
       <c r="C127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E127" s="3">
         <v>12917.5</v>
@@ -22363,16 +22363,16 @@
     </row>
     <row r="128" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C128" t="s">
         <v>71</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E128" s="3">
         <v>22652.33</v>
@@ -22524,16 +22524,16 @@
     </row>
     <row r="129" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B129" t="s">
         <v>161</v>
       </c>
       <c r="C129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E129" s="3">
         <v>10257.17</v>
@@ -22685,16 +22685,16 @@
     </row>
     <row r="130" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C130" t="s">
         <v>109</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E130" s="3">
         <v>10257.17</v>
@@ -22846,16 +22846,16 @@
     </row>
     <row r="131" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B131" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" t="s">
         <v>264</v>
       </c>
-      <c r="C131" t="s">
-        <v>265</v>
-      </c>
       <c r="D131" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E131" s="3">
         <v>43153</v>
@@ -23007,16 +23007,16 @@
     </row>
     <row r="132" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B132" t="s">
         <v>80</v>
       </c>
       <c r="C132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E132" s="3">
         <v>10257.17</v>
@@ -23168,16 +23168,16 @@
     </row>
     <row r="133" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B133" t="s">
         <v>118</v>
       </c>
       <c r="C133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E133" s="3">
         <v>33660.17</v>
@@ -23329,16 +23329,16 @@
     </row>
     <row r="134" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
         <v>268</v>
       </c>
-      <c r="C134" t="s">
-        <v>269</v>
-      </c>
       <c r="D134" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E134" s="3">
         <v>3834.92</v>
@@ -23490,16 +23490,16 @@
     </row>
     <row r="135" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C135" t="s">
         <v>99</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E135" s="3">
         <v>15183.5</v>
@@ -23651,16 +23651,16 @@
     </row>
     <row r="136" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B136" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" t="s">
         <v>271</v>
       </c>
-      <c r="C136" t="s">
-        <v>272</v>
-      </c>
       <c r="D136" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E136" s="3">
         <v>22652.33</v>
@@ -23812,16 +23812,16 @@
     </row>
     <row r="137" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B137" t="s">
         <v>64</v>
       </c>
       <c r="C137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E137" s="3">
         <v>10257.17</v>
@@ -23973,16 +23973,16 @@
     </row>
     <row r="138" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B138" t="s">
         <v>143</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E138" s="3">
         <v>10257.17</v>
@@ -24134,16 +24134,16 @@
     </row>
     <row r="139" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B139" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" t="s">
         <v>275</v>
       </c>
-      <c r="C139" t="s">
-        <v>276</v>
-      </c>
       <c r="D139" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E139" s="3">
         <v>33660.17</v>
@@ -24295,16 +24295,16 @@
     </row>
     <row r="140" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B140" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" t="s">
         <v>277</v>
       </c>
-      <c r="C140" t="s">
-        <v>278</v>
-      </c>
       <c r="D140" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E140" s="3">
         <v>3993.08</v>
@@ -24456,16 +24456,16 @@
     </row>
     <row r="141" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B141" t="s">
         <v>68</v>
       </c>
       <c r="C141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E141" s="3">
         <v>15183.5</v>
@@ -24617,16 +24617,16 @@
     </row>
     <row r="142" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B142" t="s">
         <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E142" s="3">
         <v>33660.17</v>
@@ -24778,16 +24778,16 @@
     </row>
     <row r="143" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B143" t="s">
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E143" s="3">
         <v>15183.5</v>
@@ -24939,16 +24939,16 @@
     </row>
     <row r="144" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C144" t="s">
         <v>55</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E144" s="3">
         <v>15183.5</v>
@@ -25100,16 +25100,16 @@
     </row>
     <row r="145" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B145" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C145" t="s">
         <v>105</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E145" s="3">
         <v>15183.5</v>
@@ -25261,16 +25261,16 @@
     </row>
     <row r="146" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B146" t="s">
         <v>78</v>
       </c>
       <c r="C146" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E146" s="3">
         <v>50560.5</v>
@@ -25422,16 +25422,16 @@
     </row>
     <row r="147" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B147" t="s">
+        <v>284</v>
+      </c>
+      <c r="C147" t="s">
         <v>285</v>
       </c>
-      <c r="C147" t="s">
-        <v>286</v>
-      </c>
       <c r="D147" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E147" s="3">
         <v>33660.17</v>
@@ -25583,16 +25583,16 @@
     </row>
     <row r="148" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B148" t="s">
+        <v>286</v>
+      </c>
+      <c r="C148" t="s">
         <v>287</v>
       </c>
-      <c r="C148" t="s">
-        <v>288</v>
-      </c>
       <c r="D148" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E148" s="3">
         <v>18582.830000000002</v>
@@ -25744,16 +25744,16 @@
     </row>
     <row r="149" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B149" t="s">
+        <v>288</v>
+      </c>
+      <c r="C149" t="s">
         <v>289</v>
       </c>
-      <c r="C149" t="s">
-        <v>290</v>
-      </c>
       <c r="D149" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E149" s="3">
         <v>15183.5</v>
@@ -25905,16 +25905,16 @@
     </row>
     <row r="150" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B150" t="s">
+        <v>290</v>
+      </c>
+      <c r="C150" t="s">
         <v>291</v>
       </c>
-      <c r="C150" t="s">
-        <v>292</v>
-      </c>
       <c r="D150" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E150" s="3">
         <v>15183.5</v>
